--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devastator\Desktop\WhateverIlike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4980D7-A3A4-4A39-B005-ECAF8B47D9F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0830BFD6-68EA-44E7-AE79-792E6374553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{85B019AE-4394-4684-873A-DA15EDB6C5FA}"/>
+    <workbookView xWindow="3300" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{85B019AE-4394-4684-873A-DA15EDB6C5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Unfinished</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Per Day</t>
+  </si>
+  <si>
+    <t>Done Today</t>
+  </si>
+  <si>
+    <t>To Do Today:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -41,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -67,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,90 +417,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAEB435-7958-4C0E-8E52-A867C1C3805A}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f>I8-J8</f>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>K8/L8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>M8-K12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -478,7 +560,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devastator\Desktop\WhateverIlike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0830BFD6-68EA-44E7-AE79-792E6374553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A35A59-2514-4FA7-A8A3-07F39B4CB947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{85B019AE-4394-4684-873A-DA15EDB6C5FA}"/>
+    <workbookView xWindow="5265" yWindow="2670" windowWidth="21600" windowHeight="11835" xr2:uid="{85B019AE-4394-4684-873A-DA15EDB6C5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Total</t>
   </si>
@@ -47,12 +47,6 @@
   <si>
     <t>Per Day</t>
   </si>
-  <si>
-    <t>Done Today</t>
-  </si>
-  <si>
-    <t>To Do Today:</t>
-  </si>
 </sst>
 </file>
 
@@ -67,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +80,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -99,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +421,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +441,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
     </row>
@@ -450,12 +451,12 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
     </row>
@@ -480,25 +481,25 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <f>I8-J8</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
         <f>K8/L8</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -507,7 +508,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
     </row>
@@ -515,23 +516,10 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>12</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>M8-K12</f>
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -540,22 +528,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
     </row>
